--- a/biology/Zoologie/Karl_Maria_Heller/Karl_Maria_Heller.xlsx
+++ b/biology/Zoologie/Karl_Maria_Heller/Karl_Maria_Heller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Karl Borromäus[1] Maria Josef Heller, de son nom usuel Karl Maria Heller, né le 21 mars 1864 à Rappoltenkirchen, près de Tulln (Autriche) et mort le 26 décembre 1945 à Dresde[2], est un entomologiste autrichien qui se spécialisa dans l'étude des coléoptères.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karl Borromäus Maria Josef Heller, de son nom usuel Karl Maria Heller, né le 21 mars 1864 à Rappoltenkirchen, près de Tulln (Autriche) et mort le 26 décembre 1945 à Dresde, est un entomologiste autrichien qui se spécialisa dans l'étude des coléoptères.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Karl Bartholomaeus Heller, Karl Maria Heller devient professeur et directeur de département au musée zoologique de Dresde à qui il lègue ses collections. Il publie dans le domaine de la taxonomie et décrit de nombreuses espèces du monde entier, notamment celles d'Asie du Sud-Est et d'Océanie. Il a la douleur de voir le musée zoologique de Dresde disparaître dans les flammes le 7 octobre 1944. Une partie de sa collection d'insectes qui était en dépôt au château de Weesenstein est cependant sauvée. Il meurt dans une Dresde en ruines le jour de Noël 1945.
 Il était membre de la Société entomologique de Stettin.
@@ -543,7 +557,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(1895) Erster Beitrag zur Papuanischen Kaeferfauna, in Abhandlungen und Berichte des königlichen zoologischen und anthropologische-ethnographischen Museums zu Dresden, 5 (16): 1–17
 (1898) Neue Käfer von Celebes, in Abhandlungen und Berichte königl. zoologischen und anthropologisch-ethnographischen Museums zu Dresden, 7: 1-40, pl. 3.
